--- a/Excel/Data-cleaning/Customers-Details.xlsx
+++ b/Excel/Data-cleaning/Customers-Details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9732"/>
+    <workbookView windowWidth="23040" windowHeight="9732" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Customer details" sheetId="4" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>Female</t>
   </si>
   <si>
-    <t xml:space="preserve">Number 58 Yaba Street, Kaduna State </t>
+    <t xml:space="preserve">Number 58 Yaba Street, Kaduna  </t>
   </si>
   <si>
     <t xml:space="preserve"> Ajao Opeyemi </t>
@@ -130,20 +130,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,153 +593,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,6 +796,92 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <diagonal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -805,6 +889,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D9" totalsRowShown="0">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Name" dataDxfId="0"/>
+    <tableColumn id="2" name="Gender" dataDxfId="1"/>
+    <tableColumn id="3" name="Age" dataDxfId="2"/>
+    <tableColumn id="4" name="Address" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1067,7 +1163,7 @@
   <sheetPr/>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1122,10 +1218,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A8"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1134,9 +1230,11 @@
     <col min="2" max="2" width="20.5740740740741" customWidth="1"/>
     <col min="3" max="3" width="19.1388888888889" customWidth="1"/>
     <col min="16" max="16" width="19.3333333333333" customWidth="1"/>
+    <col min="19" max="19" width="34.7777777777778" customWidth="1"/>
+    <col min="20" max="20" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1160,8 +1258,12 @@
         <f>LEFT(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(H1:H8,P1:P8,""),"Male",""),"Female","")),LEN(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(H1:H8,P1:P8,""),"Male",""),"Female","")))-2)</f>
         <v>Number 22 Fioye Crescent Surulere Lagos </v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" t="str">
+        <f>CLEAN(SUBSTITUTE(S1,"State",""))</f>
+        <v>Number 22 Fioye Crescent Surulere Lagos </v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1185,8 +1287,12 @@
         <f t="shared" ref="S2:S8" si="4">LEFT(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(H2:H9,P2:P9,""),"Male",""),"Female","")),LEN(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(H2:H9,P2:P9,""),"Male",""),"Female","")))-2)</f>
         <v>11 Omolade Close Omole Estate Lagos </v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" t="str">
+        <f t="shared" ref="T2:T8" si="5">CLEAN(SUBSTITUTE(S2,"State",""))</f>
+        <v>11 Omolade Close Omole Estate Lagos </v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1210,8 +1316,12 @@
         <f t="shared" si="4"/>
         <v>1 Adamu Lane, Abuja </v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" t="str">
+        <f t="shared" si="5"/>
+        <v>1 Adamu Lane, Abuja </v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1235,8 +1345,12 @@
         <f t="shared" si="4"/>
         <v>Number 58 Yaba Street, Kaduna State </v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" t="str">
+        <f t="shared" si="5"/>
+        <v>Number 58 Yaba Street, Kaduna  </v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1260,8 +1374,12 @@
         <f t="shared" si="4"/>
         <v>No12 Olubunmi Street, Abeokuta </v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" t="str">
+        <f t="shared" si="5"/>
+        <v>No12 Olubunmi Street, Abeokuta </v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1285,8 +1403,12 @@
         <f t="shared" si="4"/>
         <v>34 Ngige Street, Ugheli, Delta </v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" t="str">
+        <f t="shared" si="5"/>
+        <v>34 Ngige Street, Ugheli, Delta </v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1310,8 +1432,12 @@
         <f t="shared" si="4"/>
         <v>13, ICAN road, Enugu </v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" t="str">
+        <f t="shared" si="5"/>
+        <v>13, ICAN road, Enugu </v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1333,6 +1459,10 @@
       </c>
       <c r="S8" t="str">
         <f t="shared" si="4"/>
+        <v>ACCA Lane, Onitsha </v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="5"/>
         <v>ACCA Lane, Onitsha </v>
       </c>
     </row>
@@ -1347,146 +1477,149 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="13.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.2222222222222" style="2" customWidth="1"/>
     <col min="4" max="4" width="34.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>